--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1065795.882666509</v>
+        <v>-1068344.539852529</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>98.06558468345023</v>
       </c>
       <c r="F2" t="n">
-        <v>118.9549638808457</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>114.5691575726356</v>
+        <v>100.48599999057</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>75.48297643885492</v>
       </c>
       <c r="G5" t="n">
-        <v>250.7137269004556</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>6.882988967594683</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>103.3642763035227</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>70.81825623186974</v>
+        <v>173.0840193652032</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>141.4867229439994</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.29706439293657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>3.006892987834117</v>
+        <v>145.4210480229348</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966144</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>63.16281301712613</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="G19" t="n">
-        <v>84.87800743369191</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>132.2740511637358</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542872</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592109</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>109.8058856274585</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0136892434272</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358328</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3190,22 +3190,22 @@
         <v>151.6755878036685</v>
       </c>
       <c r="D34" t="n">
-        <v>133.044239723253</v>
+        <v>120.8538922850765</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>130.8627293516099</v>
       </c>
       <c r="F34" t="n">
-        <v>52.97777888982799</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>149.9529049973095</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512645</v>
+        <v>124.7234795512646</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360618</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516233</v>
+        <v>50.80401341516239</v>
       </c>
       <c r="S34" t="n">
         <v>165.4550527066853</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323289</v>
+        <v>201.834217032329</v>
       </c>
       <c r="U34" t="n">
         <v>270.6132410942848</v>
@@ -3247,13 +3247,13 @@
         <v>236.5664100288687</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416316</v>
+        <v>270.9517650416317</v>
       </c>
       <c r="X34" t="n">
         <v>210.1384220940778</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571354</v>
+        <v>203.0134200571355</v>
       </c>
     </row>
     <row r="35">
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652611</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261722</v>
+        <v>124.3308255261736</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>2016.438433460089</v>
       </c>
       <c r="C2" t="n">
-        <v>1685.375546116517</v>
+        <v>1647.475916519677</v>
       </c>
       <c r="D2" t="n">
-        <v>1327.109847509767</v>
+        <v>1289.210217912927</v>
       </c>
       <c r="E2" t="n">
-        <v>941.3215949115224</v>
+        <v>1190.154071768028</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784199</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234164</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>826.5851666348718</v>
+        <v>2078.679253373409</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069649</v>
+        <v>1909.743070445502</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946292</v>
+        <v>1759.626431033166</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>1611.713337450773</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952863</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348675</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022998</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="U4" t="n">
-        <v>1530.051784882306</v>
+        <v>3032.418927344514</v>
       </c>
       <c r="V4" t="n">
-        <v>1275.367296676419</v>
+        <v>2777.734439138627</v>
       </c>
       <c r="W4" t="n">
-        <v>1275.367296676419</v>
+        <v>2488.317269101666</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.377745778402</v>
+        <v>2260.327718203649</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.5851666348718</v>
+        <v>2260.327718203649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2141.344278546769</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C5" t="n">
-        <v>1772.381761606357</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D5" t="n">
-        <v>1414.116062999607</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="E5" t="n">
-        <v>1028.327810401363</v>
+        <v>897.4104964852691</v>
       </c>
       <c r="F5" t="n">
-        <v>617.3419056117552</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1830.511576737339</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1575.827088531452</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1575.827088531452</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1944.904841306683</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794323</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X8" t="n">
-        <v>2331.504681370805</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y8" t="n">
-        <v>2331.504681370805</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>679.6952191369614</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>510.7590362090546</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>360.6423967967188</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1694.548209084405</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1694.548209084405</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1405.445342210049</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>1150.760854004162</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>861.3436839672012</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.372881705156</v>
+        <v>861.3436839672012</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>861.3436839672012</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,37 +5054,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>221.343178181173</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969314</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969314</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.66716026353</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>929.730977335623</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232872</v>
       </c>
       <c r="E13" t="n">
-        <v>264.0500279773689</v>
+        <v>631.7012443408942</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172278</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135317</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.1082042373</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.31562509377</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,37 +5343,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133953</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279802</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5504,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.316474524629</v>
+        <v>801.6918836311988</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967223</v>
+        <v>632.755700703292</v>
       </c>
       <c r="D19" t="n">
-        <v>551.2636521843865</v>
+        <v>632.755700703292</v>
       </c>
       <c r="E19" t="n">
-        <v>403.3505586019934</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F19" t="n">
-        <v>403.3505586019934</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396416</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614386</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>983.3403484614386</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553158</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>816.5764010855555</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5969,37 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,16 +6008,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466572</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D25" t="n">
-        <v>402.724593490894</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E25" t="n">
-        <v>402.724593490894</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F25" t="n">
-        <v>402.724593490894</v>
+        <v>189.4149073564857</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400709</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812164</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812164</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812164</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812164</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138413</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703106</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311364</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
         <v>402.7245934908939</v>
@@ -6613,19 +6613,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2223.337895748393</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2003.736430771334</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1714.661204115532</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1459.976715909645</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1170.559545872684</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>942.5699949746665</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>721.7774158311364</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6680,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539612</v>
+        <v>778.7344347539607</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058112</v>
+        <v>625.5267703058107</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732326</v>
+        <v>503.4521316340163</v>
       </c>
       <c r="E34" t="n">
-        <v>491.1386493732326</v>
+        <v>371.2675565313801</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037094</v>
+        <v>371.2675565313801</v>
       </c>
       <c r="G34" t="n">
-        <v>286.1581605983463</v>
+        <v>219.799975726017</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203013</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>189.4682024403054</v>
@@ -6862,7 +6862,7 @@
         <v>466.5729859278537</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658036</v>
+        <v>872.3871010658033</v>
       </c>
       <c r="M34" t="n">
         <v>1309.812324758848</v>
@@ -6880,13 +6880,13 @@
         <v>2570.287251276338</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008498</v>
+        <v>2518.970066008497</v>
       </c>
       <c r="S34" t="n">
         <v>2351.843750143159</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645857</v>
+        <v>2147.970803645856</v>
       </c>
       <c r="U34" t="n">
         <v>1874.624095469811</v>
@@ -6895,13 +6895,13 @@
         <v>1635.668125743681</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186478</v>
+        <v>1361.979474186477</v>
       </c>
       <c r="X34" t="n">
         <v>1149.718441768217</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044439</v>
+        <v>944.6543811044436</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,13 +7120,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7564,22 +7564,22 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,7 +7825,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>283.8647853888116</v>
       </c>
       <c r="F2" t="n">
-        <v>287.9210818608658</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>171.6426806329773</v>
+        <v>185.7258382150428</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>45.37941682721362</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819434</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.3900508477917</v>
       </c>
       <c r="G19" t="n">
-        <v>80.64613085857694</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>70.88187642684012</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300333</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>176.3785887617856</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.0125967582174</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>203.6630665685115</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>12.19034743817659</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516098</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>76.8720358381439</v>
+        <v>129.8498147279719</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360623</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-3.339550858072471e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-1.012949724099599e-12</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170498.5494854603</v>
+        <v>170498.5494854602</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,34 +26320,34 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>201786.6499225016</v>
-      </c>
-      <c r="G2" t="n">
-        <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>204014.0338749322</v>
+        <v>204014.0338749324</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596748</v>
+        <v>12456.98663596744</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317618</v>
+        <v>92025.75929317603</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13430.0668921653</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="C4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319408</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184278</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184281</v>
-      </c>
       <c r="J4" t="n">
+        <v>13606.80811184276</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184277</v>
-      </c>
       <c r="L4" t="n">
-        <v>18730.51986650591</v>
+        <v>18730.51986650592</v>
       </c>
       <c r="M4" t="n">
-        <v>21597.6673749362</v>
+        <v>21597.66737493625</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493618</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279610.203695691</v>
+        <v>-1279957.822625497</v>
       </c>
       <c r="C6" t="n">
-        <v>4532.659021483647</v>
+        <v>4532.659021483458</v>
       </c>
       <c r="D6" t="n">
-        <v>4532.659021483458</v>
+        <v>4532.659021483531</v>
       </c>
       <c r="E6" t="n">
-        <v>-238355.1498206036</v>
+        <v>-238389.8877460386</v>
       </c>
       <c r="F6" t="n">
-        <v>87057.31198675169</v>
+        <v>87022.57406131565</v>
       </c>
       <c r="G6" t="n">
-        <v>87057.31198675164</v>
+        <v>87022.57406131589</v>
       </c>
       <c r="H6" t="n">
-        <v>87057.31198675164</v>
+        <v>87022.57406131597</v>
       </c>
       <c r="I6" t="n">
-        <v>87057.31198675165</v>
+        <v>87022.574061316</v>
       </c>
       <c r="J6" t="n">
-        <v>-130473.8904105259</v>
+        <v>-130508.6283359615</v>
       </c>
       <c r="K6" t="n">
-        <v>87057.31198675164</v>
+        <v>87022.57406131594</v>
       </c>
       <c r="L6" t="n">
-        <v>70394.93953667779</v>
+        <v>70382.47545076655</v>
       </c>
       <c r="M6" t="n">
-        <v>-11527.10005595689</v>
+        <v>-11527.10005595672</v>
       </c>
       <c r="N6" t="n">
+        <v>80498.65923721911</v>
+      </c>
+      <c r="O6" t="n">
+        <v>80498.65923721928</v>
+      </c>
+      <c r="P6" t="n">
         <v>80498.65923721931</v>
-      </c>
-      <c r="O6" t="n">
-        <v>80498.65923721931</v>
-      </c>
-      <c r="P6" t="n">
-        <v>80498.65923721925</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080343</v>
+        <v>8.713414197080446</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>331.3930693028565</v>
       </c>
       <c r="G5" t="n">
-        <v>160.2079987529978</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.3288492380182</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>115.220377048572</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>298.9128444465993</v>
+        <v>196.6470813132658</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>48.28230238744251</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.2875889591582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.060458253873114e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-3.517186542012496e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.828937001846498e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-3.782869366626501e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495935</v>
+        <v>15.5712332949593</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250672</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,25 +32078,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32722,7 +32722,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
         <v>790.8204499236507</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,13 +33509,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33667,7 +33667,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460027</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507082</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,13 +37157,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791271</v>
+        <v>96.61771655791266</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045943</v>
+        <v>279.9038217045942</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140908</v>
+        <v>409.9132476140907</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960045</v>
+        <v>441.8436602960044</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848668</v>
+        <v>437.1973662848667</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010048</v>
+        <v>388.8331330010047</v>
       </c>
       <c r="P34" t="n">
         <v>311.2030066015843</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
